--- a/word_clouds/Top Words in Each Category.xlsx
+++ b/word_clouds/Top Words in Each Category.xlsx
@@ -1,17 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/18503da5fd32c834/Documents/quest/dbk_consulting/word_clouds/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="5" documentId="11_946C2C7481E05362ACE64D75D69180A575902907" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BBF7F43C-B06E-4E58-BF70-72F026F2051A}"/>
+  <bookViews>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="Sheet1" sheetId="1" r:id="rId4"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="118">
   <si>
     <t>Campus Life</t>
   </si>
@@ -370,21 +379,21 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3">
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12.0"/>
+      <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="&quot;EB Garamond&quot;"/>
     </font>
     <font>
-      <sz val="12.0"/>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="EB Garamond"/>
     </font>
@@ -394,42 +403,45 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="4">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -619,20 +631,25 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:J24"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A39" workbookViewId="0">
+      <selection activeCell="D19" sqref="D19"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:10">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -664,7 +681,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:10">
       <c r="A2" s="1" t="s">
         <v>10</v>
       </c>
@@ -696,7 +713,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:10">
       <c r="A3" s="1" t="s">
         <v>19</v>
       </c>
@@ -728,7 +745,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:10">
       <c r="A4" s="1" t="s">
         <v>25</v>
       </c>
@@ -760,7 +777,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:10">
       <c r="A5" s="1" t="s">
         <v>16</v>
       </c>
@@ -792,7 +809,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:10">
       <c r="A6" s="1" t="s">
         <v>41</v>
       </c>
@@ -824,7 +841,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:10">
       <c r="A7" s="1" t="s">
         <v>49</v>
       </c>
@@ -856,7 +873,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:10">
       <c r="A8" s="1" t="s">
         <v>56</v>
       </c>
@@ -888,7 +905,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:10">
       <c r="A9" s="1" t="s">
         <v>60</v>
       </c>
@@ -920,7 +937,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:10">
       <c r="A10" s="1" t="s">
         <v>65</v>
       </c>
@@ -952,7 +969,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:10">
       <c r="A11" s="1" t="s">
         <v>25</v>
       </c>
@@ -981,7 +998,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:10">
       <c r="A12" s="1" t="s">
         <v>75</v>
       </c>
@@ -1010,7 +1027,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:10">
       <c r="A13" s="1" t="s">
         <v>82</v>
       </c>
@@ -1039,7 +1056,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:10">
       <c r="A14" s="1" t="s">
         <v>88</v>
       </c>
@@ -1066,7 +1083,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="1:10" ht="15.75" customHeight="1">
       <c r="A15" s="1" t="s">
         <v>94</v>
       </c>
@@ -1087,13 +1104,13 @@
         <v>26</v>
       </c>
       <c r="I15" s="1" t="s">
-        <v>54</v>
+        <v>101</v>
       </c>
       <c r="J15" s="1" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" spans="1:10" ht="15.75" customHeight="1">
       <c r="A16" s="1" t="s">
         <v>98</v>
       </c>
@@ -1111,13 +1128,13 @@
         <v>100</v>
       </c>
       <c r="I16" s="1" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="J16" s="1" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" spans="1:10" ht="15.75" customHeight="1">
       <c r="A17" s="1" t="s">
         <v>103</v>
       </c>
@@ -1134,13 +1151,13 @@
         <v>51</v>
       </c>
       <c r="I17" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="J17" s="1" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" spans="1:10" ht="15.75" customHeight="1">
       <c r="A18" s="1" t="s">
         <v>106</v>
       </c>
@@ -1151,13 +1168,13 @@
         <v>89</v>
       </c>
       <c r="I18" s="1" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="J18" s="1" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" spans="1:10" ht="15.75" customHeight="1">
       <c r="A19" s="1" t="s">
         <v>108</v>
       </c>
@@ -1165,62 +1182,59 @@
         <v>16</v>
       </c>
       <c r="I19" s="1" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="J19" s="1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" spans="1:10" ht="15.75" customHeight="1">
       <c r="D20" s="3" t="s">
         <v>110</v>
       </c>
       <c r="I20" s="1" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="J20" s="1" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" spans="1:10" ht="15.75" customHeight="1">
       <c r="D21" s="3" t="s">
         <v>103</v>
       </c>
       <c r="I21" s="1" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="J21" s="1" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="22">
+    <row r="22" spans="1:10" ht="15">
       <c r="D22" s="1"/>
       <c r="I22" s="1" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="J22" s="1" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="23">
+    <row r="23" spans="1:10" ht="15">
       <c r="D23" s="1"/>
       <c r="I23" s="1" t="s">
-        <v>117</v>
+        <v>110</v>
       </c>
       <c r="J23" s="1" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="24">
+    <row r="24" spans="1:10" ht="15">
       <c r="D24" s="1"/>
-      <c r="I24" s="1" t="s">
-        <v>110</v>
-      </c>
       <c r="J24" s="1" t="s">
         <v>74</v>
       </c>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/word_clouds/Top Words in Each Category.xlsx
+++ b/word_clouds/Top Words in Each Category.xlsx
@@ -10,7 +10,7 @@
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="5" documentId="11_946C2C7481E05362ACE64D75D69180A575902907" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BBF7F43C-B06E-4E58-BF70-72F026F2051A}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2076" yWindow="1092" windowWidth="18420" windowHeight="9780" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -643,13 +643,13 @@
   </sheetPr>
   <dimension ref="A1:J24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A39" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:10" ht="15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -681,7 +681,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:10">
+    <row r="2" spans="1:10" ht="15">
       <c r="A2" s="1" t="s">
         <v>10</v>
       </c>
@@ -713,7 +713,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:10">
+    <row r="3" spans="1:10" ht="15">
       <c r="A3" s="1" t="s">
         <v>19</v>
       </c>
@@ -745,7 +745,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="4" spans="1:10">
+    <row r="4" spans="1:10" ht="15">
       <c r="A4" s="1" t="s">
         <v>25</v>
       </c>
@@ -777,7 +777,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="5" spans="1:10">
+    <row r="5" spans="1:10" ht="15">
       <c r="A5" s="1" t="s">
         <v>16</v>
       </c>
@@ -809,7 +809,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="6" spans="1:10">
+    <row r="6" spans="1:10" ht="15">
       <c r="A6" s="1" t="s">
         <v>41</v>
       </c>
@@ -841,7 +841,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="7" spans="1:10">
+    <row r="7" spans="1:10" ht="15">
       <c r="A7" s="1" t="s">
         <v>49</v>
       </c>
@@ -873,7 +873,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="8" spans="1:10">
+    <row r="8" spans="1:10" ht="15">
       <c r="A8" s="1" t="s">
         <v>56</v>
       </c>
@@ -905,7 +905,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="9" spans="1:10">
+    <row r="9" spans="1:10" ht="15">
       <c r="A9" s="1" t="s">
         <v>60</v>
       </c>
@@ -937,7 +937,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="10" spans="1:10">
+    <row r="10" spans="1:10" ht="15">
       <c r="A10" s="1" t="s">
         <v>65</v>
       </c>
@@ -969,7 +969,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="11" spans="1:10">
+    <row r="11" spans="1:10" ht="15">
       <c r="A11" s="1" t="s">
         <v>25</v>
       </c>
@@ -998,7 +998,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="12" spans="1:10">
+    <row r="12" spans="1:10" ht="15">
       <c r="A12" s="1" t="s">
         <v>75</v>
       </c>
@@ -1027,7 +1027,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="13" spans="1:10">
+    <row r="13" spans="1:10" ht="15">
       <c r="A13" s="1" t="s">
         <v>82</v>
       </c>
@@ -1056,7 +1056,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="14" spans="1:10">
+    <row r="14" spans="1:10" ht="15">
       <c r="A14" s="1" t="s">
         <v>88</v>
       </c>
